--- a/autoast/2_jobs.xlsx
+++ b/autoast/2_jobs.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Domains" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFd9d9d9"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,16 +62,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -95,11 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -109,16 +112,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -137,30 +139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -235,13 +220,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N3" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:N3"/>
   <tableColumns count="14">
     <tableColumn id="1" name="region" totalsRowLabel="Total"/>
     <tableColumn id="2" name="feature_layer"/>
     <tableColumn id="3" name="crown_file_number"/>
     <tableColumn id="4" name="disposition_number"/>
     <tableColumn id="5" name="parcel_number"/>
-    <tableColumn id="6" name="output_directory" dataDxfId="0"/>
+    <tableColumn id="6" name="output_directory"/>
     <tableColumn id="7" name="output_directory_same_as_input"/>
     <tableColumn id="8" name="dont_overwrite_outputs"/>
     <tableColumn id="9" name="skip_conflicts_and_constraints"/>
@@ -262,10 +248,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -303,71 +289,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,7 +381,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -418,11 +404,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -431,13 +417,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -447,7 +433,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -456,7 +442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -465,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,10 +459,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -548,66 +534,66 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.5703125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="140.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
-    <col width="110.42578125" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
-    <col width="29.28515625" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
-    <col width="29.140625" customWidth="1" style="14" min="8" max="8"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" style="15" min="9" max="9"/>
-    <col width="21" bestFit="1" customWidth="1" style="15" min="10" max="10"/>
-    <col width="21.28515625" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="14" min="12" max="12"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="16" min="15" max="15"/>
+    <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="140.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
+    <col width="110.4335714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="29.29071428571428" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
+    <col width="29.14785714285714" bestFit="1" customWidth="1" style="14" min="8" max="8"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="14" min="9" max="9"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="14" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="14" min="12" max="12"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="15" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="15" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="5">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>feature_layer</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>crown_file_number</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>disposition_number</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>parcel_number</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>output_directory</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>output_directory_same_as_input</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>dont_overwrite_outputs</t>
         </is>
@@ -622,17 +608,17 @@
           <t>suppress_map_creation</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>add_maps_to_current</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>run_as_fcbc</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>ast_condition</t>
         </is>
@@ -644,8 +630,8 @@
       </c>
       <c r="O1" s="9" t="n"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="5">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>South_Coast</t>
         </is>
@@ -660,49 +646,51 @@
       <c r="E2" s="10" t="n">
         <v>968511</v>
       </c>
-      <c r="F2" s="18" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_TEST\Parcel_968511</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="K2" s="7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="b">
-        <v>1</v>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="M2" s="12" t="inlineStr">
         <is>
-          <t>Requeued</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" s="5">
-      <c r="A3" s="2" t="inlineStr">
+          <t>COMPLETE</t>
+        </is>
+      </c>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Northeast</t>
         </is>
@@ -715,43 +703,44 @@
       <c r="C3" s="10" t="n"/>
       <c r="D3" s="10" t="n"/>
       <c r="E3" s="10" t="n"/>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_TEST\876367
-</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_TEST\Parcel_968511_v2</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="b">
-        <v>1</v>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>Requeued</t>
+          <t>COMPLETE</t>
         </is>
       </c>
       <c r="N3" s="9" t="inlineStr">
@@ -763,7 +752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
@@ -784,75 +772,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27.140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="2" max="3"/>
+    <col width="27.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="5">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="5">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Cariboo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="5">
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Kootenay_Boundary</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="5">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Skeena</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="5">
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>South_Coast</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="5">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Thompson_Okanagan</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="5">
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>West_Coast</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="5">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Omineca</t>
         </is>
       </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoast/2_jobs.xlsx
+++ b/autoast/2_jobs.xlsx
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -128,9 +128,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -542,19 +539,19 @@
   <cols>
     <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="140.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="16.86214285714286" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="12" min="4" max="4"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
     <col width="110.4335714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="29.29071428571428" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
-    <col width="29.14785714285714" bestFit="1" customWidth="1" style="14" min="8" max="8"/>
-    <col width="25.57642857142857" bestFit="1" customWidth="1" style="14" min="9" max="9"/>
-    <col width="21.005" bestFit="1" customWidth="1" style="14" min="10" max="10"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="14" min="12" max="12"/>
+    <col width="29.29071428571428" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
+    <col width="29.14785714285714" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="13" min="12" max="12"/>
     <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="15" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="15" min="15" max="15"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="14" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -681,7 +678,7 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M2" s="12" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -738,7 +735,7 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M3" s="12" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>

--- a/autoast/2_jobs.xlsx
+++ b/autoast/2_jobs.xlsx
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -128,6 +128,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -539,19 +542,19 @@
   <cols>
     <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="140.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
-    <col width="16.86214285714286" bestFit="1" customWidth="1" style="12" min="4" max="4"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
     <col width="110.4335714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="29.29071428571428" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
-    <col width="29.14785714285714" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
-    <col width="25.57642857142857" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
-    <col width="21.005" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="13" min="12" max="12"/>
+    <col width="29.29071428571428" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
+    <col width="29.14785714285714" bestFit="1" customWidth="1" style="14" min="8" max="8"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="14" min="9" max="9"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="14" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="14" min="12" max="12"/>
     <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="14" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="15" max="15"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="15" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="15" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -678,7 +681,7 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="12" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -735,7 +738,7 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="12" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>

--- a/autoast/2_jobs.xlsx
+++ b/autoast/2_jobs.xlsx
@@ -538,7 +538,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="140.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="M2" s="12" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="N2" s="7" t="n"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="N3" s="9" t="inlineStr">
@@ -770,7 +770,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="27.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
